--- a/test_excel/api_cases_V1.xlsx
+++ b/test_excel/api_cases_V1.xlsx
@@ -1,168 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guohongliang\Desktop\CICD\资料包_06_框架搭建_Pytest+Excel+Allure完整框架集成实战\资料包_06_框架搭建_Pytest+Excel+Allure完整框架集成实战\代码包\class06\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE75BB8A-6B58-4385-84F8-69AE15056308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="备注" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="备注" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>编号[0]</t>
-  </si>
-  <si>
-    <t>地址[1]</t>
-  </si>
-  <si>
-    <t>路径[2]</t>
-  </si>
-  <si>
-    <t>请求方法[3]</t>
-  </si>
-  <si>
-    <t>公共参数(PARAMS)[4]</t>
-  </si>
-  <si>
-    <t>请求头[5]</t>
-  </si>
-  <si>
-    <t>参数[6]</t>
-  </si>
-  <si>
-    <t>参数类型[7]</t>
-  </si>
-  <si>
-    <t>校验字段[8]</t>
-  </si>
-  <si>
-    <t>预期结果[9]</t>
-  </si>
-  <si>
-    <t>检查结果[10]</t>
-  </si>
-  <si>
-    <t>用例名[11]</t>
-  </si>
-  <si>
-    <t>http://shop-xo.hctestedu.com/index.php?s=</t>
-  </si>
-  <si>
-    <t>api/user/login</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{"application": "app",
-"application_client_type": "weixin"}</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>$..msg</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>成功调佣登陆接口，msg返回登录成功</t>
-  </si>
-  <si>
-    <t>1.以下几列，无值时一定要填None不然会报错</t>
-  </si>
-  <si>
-    <t>公共参数(PARAMS)
-请求头
-参数</t>
-  </si>
-  <si>
-    <t>2.参数类型必须有值，要么json要么data</t>
-  </si>
-  <si>
-    <t>{"accounts":"zz","pwd":"123456","type": "username"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -182,29 +93,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,144 +435,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="42.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="49.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="42.44140625" customWidth="1"/>
+    <col width="7.6640625" customWidth="1" min="1" max="1"/>
+    <col width="42.77734375" customWidth="1" min="2" max="2"/>
+    <col width="23.109375" customWidth="1" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" min="4" max="4"/>
+    <col width="31.6640625" customWidth="1" min="5" max="5"/>
+    <col width="16.21875" customWidth="1" min="6" max="6"/>
+    <col width="49.109375" customWidth="1" min="7" max="7"/>
+    <col width="12.5546875" customWidth="1" min="8" max="8"/>
+    <col width="11.5546875" customWidth="1" min="9" max="9"/>
+    <col width="12.33203125" customWidth="1" min="10" max="10"/>
+    <col width="12.44140625" customWidth="1" min="11" max="11"/>
+    <col width="42.44140625" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>编号[0]</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>地址[1]</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>路径[2]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>请求方法[3]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>公共参数(PARAMS)[4]</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>请求头[5]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>参数[6]</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>参数类型[7]</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>校验字段[8]</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>预期结果[9]</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>用例名[11]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>http://shop-xo.hctestedu.com/index.php?s=</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>api/user/login</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>{"application": "app",
+"application_client_type": "weixin"}</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>{"accounts":"zz","pwd":"123456","type": "username"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>$..msg</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>成功调佣登陆接口，msg返回登录成功</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://shop-xo.hctestedu.com/index.php?s=" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" tooltip="http://shop-xo.hctestedu.com/index.php?s=" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col width="44.6640625" customWidth="1" min="1" max="1"/>
+    <col width="20.33203125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
+    <row r="1" ht="41.4" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>1.以下几列，无值时一定要填None不然会报错</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>公共参数(PARAMS)
+请求头
+参数</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2.参数类型必须有值，要么json要么data</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>